--- a/Module 09 - Non-current Assets Intangible Assets.xlsx
+++ b/Module 09 - Non-current Assets Intangible Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4E7B89-B31D-462A-A384-8B426A0E44D4}"/>
+  <xr:revisionPtr revIDLastSave="762" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F8C558-BB70-4DA7-9C73-4AD923609F41}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="-11235" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
+    <workbookView xWindow="6405" yWindow="6255" windowWidth="21600" windowHeight="11385" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABC9AC4-C363-485A-931E-25795A89AF52}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2652354-7DBA-4672-A2B5-4CCC53B5289A}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A188" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3474,7 +3476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3590,7 +3594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView topLeftCell="A77" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4190,8 +4196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9B923E-EFAB-4729-8584-7693B1D13616}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Module 09 - Non-current Assets Intangible Assets.xlsx
+++ b/Module 09 - Non-current Assets Intangible Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="762" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F8C558-BB70-4DA7-9C73-4AD923609F41}"/>
+  <xr:revisionPtr revIDLastSave="829" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738F70BC-A3F7-42ED-A4EF-1F993A598F88}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="6255" windowWidth="21600" windowHeight="11385" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2520" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="295">
   <si>
     <t>Main</t>
   </si>
@@ -918,6 +918,18 @@
   </si>
   <si>
     <t>being amor from time of dev.</t>
+  </si>
+  <si>
+    <t>dr - SPL amortisation charge</t>
+  </si>
+  <si>
+    <t>cr - brand - acc'd amortisation</t>
+  </si>
+  <si>
+    <t>being amortisation of brand</t>
+  </si>
+  <si>
+    <t>The accounting treatment is determined by IAS 38 Intangible Assets, which includes that expenditure relating to research and development costs should only be capitalised when all six criteria in para 57 of the standard have been met – Project 175 meets these criteria at XX/XX/XXXX.</t>
   </si>
 </sst>
 </file>
@@ -1067,14 +1079,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>546599</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,14 +1123,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>42944</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,14 +1167,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>16750</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>16749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,14 +1211,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>86879</xdr:rowOff>
+      <xdr:colOff>2332</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>86880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1243,13 +1255,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1287,13 +1299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>37309</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>86137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1331,14 +1343,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>60834</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>151535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1375,14 +1387,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>135491</xdr:rowOff>
+      <xdr:colOff>2332</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>135490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2178,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABC9AC4-C363-485A-931E-25795A89AF52}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2652354-7DBA-4672-A2B5-4CCC53B5289A}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2257,272 +2269,277 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25B8C-6125-431E-B265-90DFD7A87604}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2650,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3476,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3594,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A98" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4196,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9B923E-EFAB-4729-8584-7693B1D13616}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4804,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DE9BFB-42B7-4495-B120-030F5E246ABC}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4902,7 +4921,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>264</v>
       </c>
@@ -4913,7 +4932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>264</v>
       </c>
@@ -4924,7 +4943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>266</v>
       </c>
@@ -4938,7 +4957,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>267</v>
       </c>
@@ -4952,7 +4971,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>229</v>
       </c>
@@ -4961,7 +4980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>287</v>
       </c>
@@ -4970,7 +4989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>284</v>
       </c>
@@ -4979,7 +4998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>285</v>
       </c>
@@ -4988,7 +5007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>269</v>
       </c>
@@ -4997,12 +5016,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>283</v>
       </c>
@@ -5010,98 +5029,126 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <f>+D22*8/120</f>
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f ca="1">+_xlfn.FORMULATEXT(D30)</f>
+      <c r="G30" s="1" t="str">
+        <f ca="1">+_xlfn.FORMULATEXT(E30)</f>
         <v>=+D22*8/120</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="1">
-        <f>+D30</f>
+      <c r="F31" s="1">
+        <f>+E30</f>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>850</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="1">
-        <f>+E40</f>
+      <c r="F42" s="1">
+        <f>+E41</f>
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E43" s="1">
-        <f>+E40*2/120</f>
+      <c r="E44" s="11">
+        <f>+E41*2/120</f>
         <v>14.166666666666666</v>
       </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E46" s="1">
-        <v>250</v>
+        <v>291</v>
+      </c>
+      <c r="E46" s="11">
+        <f>E44</f>
+        <v>14.166666666666666</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11">
+        <f>E46</f>
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="1">
         <v>250</v>
       </c>
-      <c r="F47" s="1">
-        <f>+E46</f>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="1">
+        <f>+E51</f>
         <v>250</v>
       </c>
     </row>
@@ -5110,5 +5157,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C90D0255-C5A6-4F65-B643-B586C860CBB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Module 09 - Non-current Assets Intangible Assets.xlsx
+++ b/Module 09 - Non-current Assets Intangible Assets.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="829" documentId="8_{1B438C47-7284-4961-948B-4A8001FF902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{738F70BC-A3F7-42ED-A4EF-1F993A598F88}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2520" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="12420" windowHeight="11385" activeTab="7" xr2:uid="{E3EAD500-5471-46BE-B6C2-621966D03A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABC9AC4-C363-485A-931E-25795A89AF52}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
   <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25B8C-6125-431E-B265-90DFD7A87604}">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2669,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B03CF-C77A-41BC-8B00-90173B3A8CA6}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3495,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4200DC-B233-49D7-B7D5-02B27F8324AE}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3613,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6189177-6BDA-42AA-BFB6-14530D3363DF}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4215,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9B923E-EFAB-4729-8584-7693B1D13616}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4825,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DE9BFB-42B7-4495-B120-030F5E246ABC}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
